--- a/2025-10-20/20_ai.full_fixtures.xlsx
+++ b/2025-10-20/20_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,2222 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Juticalpa FC - CD Olimpia ✓: 0:2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CD Olimpia</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Caguas Sporting FC ✓ - Guayama FC: 10:1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Caguas Sporting FC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Asante Kotoko SC  - Young Apostles FC: 15:00</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Asante Kotoko SC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JS Kabylie  - USM Khenchela: 23:00</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JS Kabylie</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>23</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The Cong - Viettel FC ✓ - SHB Da Nang FC: 2:1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>The Cong - Viettel FC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bashundhara Kings ✓ - Fortis FC: 2:1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bashundhara Kings</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Montego Bay United FC ✓ - Racing United FC: 3:1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Montego Bay United FC</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adama Ketema FC - Ethiopian Insurance Corporation SA : 11:00</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ethiopian Insurance Corporation SA</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sharjah FC X - Tractor FC: 0:5</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sharjah FC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sporting San Miguelito  - Alianza FC Panama: 00:15</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sporting San Miguelito</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Al-Shorta SC - Al-Ittihad Club ✓: 1:4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Al-Ittihad Club</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Thimphu City FC - Paro FC : 2:2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Paro FC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LD Alajuelense ✓ - Deportivo Saprissa: 2:0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LD Alajuelense</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Portmore United FC  - Harbour View FC: 23:00</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Portmore United FC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>23</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MFK Chrudim - FC SILON Taborsko ✓: 0:3</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FC SILON Taborsko</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CD Malacateco  - Deportivo Guastatoya: 02:30</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CD Malacateco</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Diriangén FC ✓ - UNAN Managua: 2:1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Diriangén FC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Club Deportivo Riestra  - Instituto ACC: 23:00</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Club Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>23</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Clube de Regatas Vasco da Gama  - Fluminense Football Club: 23:30</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Clube de Regatas Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>53</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Valur Reykjavík  - FH Hafnarfjördur: 4:4</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Valur Reykjavík</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FC Ozgon  - Muras United Dzhalal-Abad: 1:1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>FC Ozgon</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bahirdar Ketema SC  - Hadia Hosaina FC: 14:00</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Bahirdar Ketema SC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>14</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Arda Kardzhali X - Septemvri Sofia: 0:1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Arda Kardzhali</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Thitsar Arman FC X - Rakhine United: 0:3</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thitsar Arman FC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FC Kudrivka - Metalist 1925 Kharkiv : 1:1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Metalist 1925 Kharkiv</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Békéscsaba 1912 Elöre SE - Kecskeméti TE : 19:00</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kecskeméti TE</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>19</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Al-Wahda FC ✓ - Al-Duhail SC: 3:1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Al-Wahda FC</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Millonarios FC  - Atlético Bucaramanga: 02:30</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Millonarios FC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>32</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Chaika Peschanokopskoe - Ural Yekaterinburg ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ural Yekaterinburg</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Chernomorets Novorossijsk  - Neftekhimik Nizhnekamsk: 1:1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Chernomorets Novorossijsk</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Olimpik-Mobiuz Tashkent  - Aral Nukus: 12:00</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Olimpik-Mobiuz Tashkent</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>12</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Comunicaciones FC - CSD Municipal : 00:00</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CSD Municipal</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FCI Levadia U21  - Kalju FC U21: 0:0</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FCI Levadia U21</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FK Auda X - FK Liepaja: 1:2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FK Auda</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yarmanya United FC - Yadanarbon FC ✓: 1:5</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Yadanarbon FC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Tikves Kavadarci  - Arsimi: 13:30</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tikves Kavadarci</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>43</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Libertad FC  - CD Universidad Católica: 1:1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Libertad FC</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alga Bishkek  - FC OshMU: 0:0</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Alga Bishkek</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bibiani Gold Stars FC ✓ - Heart of Lions FC: 3:1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Bibiani Gold Stars FC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Serik Spor X - Amed SK: 1:2</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Serik Spor</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Club Atlético Tigre  - CA Barracas Central: 23:00</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Club Atlético Tigre</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>23</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Al-Adalah FC X - Al-Orobah FC: 1:4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Al-Adalah FC</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Club Plaza Colonia  - Liverpool FC Montevideo: 23:00</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Club Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>23</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Esporte Clube Bahia ✓ - Grêmio Foot-Ball Porto Alegrense: 4:0</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Esporte Clube Bahia</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Al-Anwar Club X - Al-Faisaly FC: 1:3</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Al-Anwar Club</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Goiás EC X - Associação Chapecoense de Futebol: 1:3</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Goiás EC</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PERSIS Solo - Malut United FC ✓: 1:3</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Malut United FC</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Bashkimi  - FC Shkupi: 13:30</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bashkimi</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>43</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Eleven Wonders FC - Karela United FC : 0:0</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Karela United FC</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CD Tapatío X - Mineros de Zacatecas: 2:3</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CD Tapatío</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven U21  - ADO Den Haag: 19:00</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven U21</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>19</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Semen Padang FC - Bhayangkara Presisi Lampung FC ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Bhayangkara Presisi Lampung FC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FK Tukums 2000 II  - FC RFS II: 2:2</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>FK Tukums 2000 II</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ferroviária  - Paysandu SC: 23:00</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Ferroviária</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>23</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FC Hermannstadt X - FK Csikszereda Miercurea Ciuc: 0:2</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FC Hermannstadt</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Volga Uljanovsk ✓ - FC Ufa: 2:0</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Volga Uljanovsk</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Standard Liège ✓ - Royal Antwerp FC: 1:0</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Standard Liège</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sihul Shire FC - Mekele 70 Enderta FC : 15:00</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Mekele 70 Enderta FC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>15</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>UCSA Tarasivka - Livyi Bereg Kyiv ✓: 0:1</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Livyi Bereg Kyiv</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mon Oct</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Esporte Clube Juventude - Red Bull Bragantino : 23:00</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Red Bull Bragantino</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>23</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
